--- a/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
+++ b/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="287">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -479,9 +479,6 @@
   </si>
   <si>
     <t>The status property covers the general availability of the resource, not the current value which may be covered by the operationStatus, or by a schedule/slots if they are configured for the location.</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>required</t>
@@ -2516,31 +2513,31 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>75</v>
@@ -2573,18 +2570,18 @@
         <v>94</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2607,13 +2604,13 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2643,11 +2640,11 @@
         <v>106</v>
       </c>
       <c r="Y13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>75</v>
       </c>
@@ -2664,7 +2661,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2679,18 +2676,18 @@
         <v>94</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2713,16 +2710,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2772,7 +2769,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2787,7 +2784,7 @@
         <v>94</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -2795,10 +2792,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2821,19 +2818,19 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2882,7 +2879,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2897,7 +2894,7 @@
         <v>94</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -2905,10 +2902,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2931,17 +2928,17 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -2990,7 +2987,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3005,7 +3002,7 @@
         <v>94</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3013,10 +3010,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3042,48 +3039,48 @@
         <v>102</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3100,7 +3097,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3115,18 +3112,18 @@
         <v>94</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3149,13 +3146,13 @@
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3182,14 +3179,14 @@
         <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>75</v>
       </c>
@@ -3206,7 +3203,7 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -3221,18 +3218,18 @@
         <v>94</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3255,13 +3252,13 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3312,7 +3309,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3327,7 +3324,7 @@
         <v>94</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3335,10 +3332,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3361,19 +3358,19 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3422,7 +3419,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3437,7 +3434,7 @@
         <v>94</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3445,10 +3442,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3471,17 +3468,17 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3506,14 +3503,14 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
       </c>
@@ -3530,7 +3527,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3545,18 +3542,18 @@
         <v>94</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3579,17 +3576,17 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
@@ -3638,7 +3635,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3653,7 +3650,7 @@
         <v>94</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>75</v>
@@ -3661,10 +3658,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3687,13 +3684,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3744,7 +3741,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3759,7 +3756,7 @@
         <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3767,10 +3764,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3799,7 +3796,7 @@
         <v>129</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>131</v>
@@ -3852,7 +3849,7 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3867,7 +3864,7 @@
         <v>133</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -3875,14 +3872,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3904,10 +3901,10 @@
         <v>128</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N25" t="s" s="2">
         <v>131</v>
@@ -3962,7 +3959,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -3985,10 +3982,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4011,13 +4008,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4068,7 +4065,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>83</v>
@@ -4083,7 +4080,7 @@
         <v>94</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4091,10 +4088,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4117,13 +4114,13 @@
         <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4174,7 +4171,7 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>83</v>
@@ -4189,7 +4186,7 @@
         <v>94</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4197,10 +4194,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4223,13 +4220,13 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4280,7 +4277,7 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4295,7 +4292,7 @@
         <v>94</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4303,10 +4300,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4329,19 +4326,19 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4390,7 +4387,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4405,7 +4402,7 @@
         <v>94</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4413,10 +4410,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4439,17 +4436,17 @@
         <v>75</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -4498,7 +4495,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4513,7 +4510,7 @@
         <v>94</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -4521,10 +4518,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4547,16 +4544,16 @@
         <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4606,7 +4603,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4621,7 +4618,7 @@
         <v>94</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4629,10 +4626,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4655,13 +4652,13 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4712,7 +4709,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4727,7 +4724,7 @@
         <v>75</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -4735,10 +4732,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4767,7 +4764,7 @@
         <v>129</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>131</v>
@@ -4820,7 +4817,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4835,7 +4832,7 @@
         <v>133</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -4843,14 +4840,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4872,10 +4869,10 @@
         <v>128</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>131</v>
@@ -4930,7 +4927,7 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -4953,10 +4950,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4982,10 +4979,10 @@
         <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5012,14 +5009,14 @@
         <v>75</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AA35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5036,7 +5033,7 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5051,7 +5048,7 @@
         <v>94</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5059,10 +5056,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5085,13 +5082,13 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5142,7 +5139,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5157,7 +5154,7 @@
         <v>94</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5165,10 +5162,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5191,13 +5188,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5248,7 +5245,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5263,7 +5260,7 @@
         <v>94</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>75</v>
@@ -5271,10 +5268,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5297,13 +5294,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5354,7 +5351,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -5369,7 +5366,7 @@
         <v>94</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5377,10 +5374,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5403,13 +5400,13 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5460,7 +5457,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -5475,7 +5472,7 @@
         <v>94</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5483,10 +5480,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5509,17 +5506,17 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -5568,7 +5565,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -5583,7 +5580,7 @@
         <v>94</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>

--- a/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
+++ b/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
+++ b/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
+++ b/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
+++ b/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
@@ -1237,17 +1237,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.3984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.85546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.85546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="21.953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1256,24 +1256,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="81.6484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.8203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.59765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.28125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.9921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.50390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="66.3671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="63.50390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
+++ b/docs/StructureDefinition-BRLocalAtendimento-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -1237,17 +1237,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.85546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.9609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.9609375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="21.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1256,24 +1256,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.59765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.28125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.9921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="36.50390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.94921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.34375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.16015625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.80859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="63.50390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="60.5546875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.9375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
